--- a/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetConfig.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A115F402-DBCA-4519-A983-D01C1AEB960D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC65376-677D-40A6-8A17-3F0B088D2437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
   <si>
     <t>paradigm</t>
   </si>
@@ -227,14 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-1000, 1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-11000, 1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,4,8,16,32,64,128,32,1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,6 +284,161 @@
   </si>
   <si>
     <t>Offset-Dur-16ms-2000-1000-750-500, Offset-Dur-4ms-2000-1000-750-500, Noise2000-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2000, 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3000, 5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFTPlotWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlotWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-50,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_2_128_4s_New</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_Reg_New</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_8ms_Reg_New</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms, 8-0o5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 3968.2, 504.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 3968.2,  504.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3800,-200_9:-500,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,8,16,32,64,128,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset-ICI-1-2-4-8-16-32, Offset-ICI-32-64-128-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-14_MLA_Offset_4_DiffDur_Gen\offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1000,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1500,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4,4,4,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021,508.5,252.2,124.1,60.1,28,12,4,0,128,1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ms-D1024,4ms-D512,4ms-D256,4ms-D128,4ms-D64,4ms-D32,4ms-D16,4ms-D8,4ms-D4,Noise-D128, Noise-D1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5;5,6,7,8,9;10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset-4ms-D1024-512-256-128-64, Offset-4ms-D64-32-16-8-4, Noise128-1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-14_MLA_Offset_8_DiffDur_Gen\offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8,8,8,8,8,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8ms-D1024,8ms-D512,8ms-D256,8ms-D128,8ms-D64,8ms-D32,8ms-D16,Noise-D128, Noise-D1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset-8ms-D1024-512-256-128, Offset-8ms-D128-64-32-16, Noise128-1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-14_MLA_Offset_4_16_DiffVar_500ms\offset</t>
+  </si>
+  <si>
+    <t>8ms-Var2,8ms-Var10,8ms-Var50,8ms-Var250,8ms-Reg, 4ms-Var2,4ms-Var10,4ms-Var50,4ms-Var250, 4ms-Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>492.8,495.7,496.1,496,504.5,493.8,492,497.4,496.1,508.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8,8,8,4,4,4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset-Var-8ms-2-10-50-250-Reg, Offset-Var-4ms-Rs-2-10-50-250-Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1017,504.5,248.2,120.1,56.1,24,8,128,1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100,600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1500,1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100,1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4;4,5,6,7;8,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,9 +527,6 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,6 +557,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,377 +841,703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.21875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="16.21875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="1"/>
-    <col min="20" max="20" width="45.33203125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="30.33203125" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="47.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="5" customWidth="1"/>
+    <col min="3" max="3" width="53.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="5" customWidth="1"/>
+    <col min="6" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="9" width="21.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1"/>
+    <col min="20" max="20" width="16.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.875" style="1"/>
+    <col min="22" max="22" width="45.375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="21.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="30.375" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="1">
         <v>0.1</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="1">
         <v>10</v>
       </c>
-      <c r="P2" s="1">
+      <c r="R2" s="1">
         <v>2</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="S2" s="6">
         <v>0.05</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>66</v>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:24" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>0.1</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>10</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>2</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="S3" s="6">
         <v>0.05</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>65</v>
+      <c r="V3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="I4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>0.1</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>10</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="1">
         <v>2</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="S4" s="6">
         <v>0.05</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T4" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>68</v>
+      <c r="V4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="I5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>0.1</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <v>10</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>2</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="S5" s="6">
         <v>0.05</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>10</v>
+      </c>
+      <c r="R6" s="1">
+        <v>2</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>10</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>10</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>67</v>
+      <c r="W8" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>10</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetConfig.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC65376-677D-40A6-8A17-3F0B088D2437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1540B6EA-8395-49EC-996D-F42FBFC773E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -843,38 +843,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="5" customWidth="1"/>
-    <col min="3" max="3" width="53.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="5" customWidth="1"/>
-    <col min="6" max="7" width="10.75" style="1" customWidth="1"/>
-    <col min="8" max="9" width="21.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="21.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="5" style="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.875" style="1"/>
-    <col min="20" max="20" width="16.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.875" style="1"/>
-    <col min="22" max="22" width="45.375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="21.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="30.375" style="5" customWidth="1"/>
-    <col min="25" max="16384" width="8.875" style="1"/>
+    <col min="19" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="16.21875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="45.33203125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="30.33203125" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -948,7 +948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>73</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>74</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>75</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>76</v>
       </c>

--- a/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetConfig.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1540B6EA-8395-49EC-996D-F42FBFC773E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0DB2BA-E5E0-4CFC-BFAF-E22C31F07913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms, 32-1s, Noise, BF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>256ms,512ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16ms-Var2,16ms-Var10,16ms-Var50,16ms-Var250,16ms-Reg, 4ms-Var2,4ms-Var10,4ms-Var50,4ms-Var250, 4ms-Reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 3968.2, 992, 4000, 4000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms, 8-0o5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 3968.2, 504.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4ms-D1024,4ms-D512,4ms-D256,4ms-D128,4ms-D64,4ms-D32,4ms-D16,4ms-D8,4ms-D4,Noise-D128, Noise-D1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5;5,6,7,8,9;10,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,10 +390,6 @@
     <t>E:\ratNeuroPixel\monkeySounds\2022-12-14_MLA_Offset_4_16_DiffVar_500ms\offset</t>
   </si>
   <si>
-    <t>8ms-Var2,8ms-Var10,8ms-Var50,8ms-Var250,8ms-Reg, 4ms-Var2,4ms-Var10,4ms-Var50,4ms-Var250, 4ms-Reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>492.8,495.7,496.1,496,504.5,493.8,492,497.4,496.1,508.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,6 +419,26 @@
   </si>
   <si>
     <t>1,2,3,4;4,5,6,7;8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ms-D1024,4ms-D512,4ms-D256,4ms-D128,4ms-D64,4ms-D32,4ms-D16,4ms-D8,4ms-D4,Noise-D128,Noise-D1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16ms-Var2,16ms-Var10,16ms-Var50,16ms-Var250,16ms-Reg, 4ms-Var2,4ms-Var10,4ms-Var50,4ms-Var250,4ms-Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8ms-Var2,8ms-Var10,8ms-Var50,8ms-Var250,8ms-Reg,4ms-Var2,4ms-Var10,4ms-Var50,4ms-Var250, 4ms-Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms,32_1s,Noise,BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms,8_0o5s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -894,13 +894,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -956,34 +956,34 @@
         <v>33</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>12</v>
@@ -1013,13 +1013,13 @@
         <v>23</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -1030,34 +1030,34 @@
         <v>33</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>12</v>
@@ -1087,13 +1087,13 @@
         <v>23</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,34 +1104,34 @@
         <v>34</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>12</v>
@@ -1161,13 +1161,13 @@
         <v>22</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1178,34 +1178,34 @@
         <v>35</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>12</v>
@@ -1235,51 +1235,51 @@
         <v>22</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="I6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="L6" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>12</v>
@@ -1309,51 +1309,51 @@
         <v>23</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="L7" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>12</v>
@@ -1383,51 +1383,51 @@
         <v>23</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>12</v>
@@ -1457,51 +1457,51 @@
         <v>23</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>12</v>
@@ -1531,13 +1531,13 @@
         <v>23</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetConfig.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0DB2BA-E5E0-4CFC-BFAF-E22C31F07913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCD8A78-40B1-4C6E-82FB-BBB62CBB2704}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="153">
   <si>
     <t>paradigm</t>
   </si>
@@ -387,58 +387,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>492.8,495.7,496.1,496,504.5,493.8,492,497.4,496.1,508.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8,8,8,4,4,4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset-Var-8ms-2-10-50-250-Reg, Offset-Var-4ms-Rs-2-10-50-250-Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1017,504.5,248.2,120.1,56.1,24,8,128,1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1500,1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4;4,5,6,7;8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ms-D1024,4ms-D512,4ms-D256,4ms-D128,4ms-D64,4ms-D32,4ms-D16,4ms-D8,4ms-D4,Noise-D128,Noise-D1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16ms-Var2,16ms-Var10,16ms-Var50,16ms-Var250,16ms-Reg, 4ms-Var2,4ms-Var10,4ms-Var50,4ms-Var250,4ms-Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8ms-Var2,8ms-Var10,8ms-Var50,8ms-Var250,8ms-Reg,4ms-Var2,4ms-Var10,4ms-Var50,4ms-Var250, 4ms-Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms,32_1s,Noise,BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms,8_0o5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_4ms_16ms_Int_last2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>E:\ratNeuroPixel\monkeySounds\2022-12-14_MLA_Offset_4_16_DiffVar_500ms\offset</t>
-  </si>
-  <si>
-    <t>492.8,495.7,496.1,496,504.5,493.8,492,497.4,496.1,508.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,8,8,8,8,4,4,4,4,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offset-Var-8ms-2-10-50-250-Reg, Offset-Var-4ms-Rs-2-10-50-250-Reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1017,504.5,248.2,120.1,56.1,24,8,128,1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-100,600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1500,1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-100,1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4;4,5,6,7;8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ms-D1024,4ms-D512,4ms-D256,4ms-D128,4ms-D64,4ms-D32,4ms-D16,4ms-D8,4ms-D4,Noise-D128,Noise-D1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16ms-Var2,16ms-Var10,16ms-Var50,16ms-Var250,16ms-Reg, 4ms-Var2,4ms-Var10,4ms-Var50,4ms-Var250,4ms-Reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8ms-Var2,8ms-Var10,8ms-Var50,8ms-Var250,8ms-Reg,4ms-Var2,4ms-Var10,4ms-Var50,4ms-Var250, 4ms-Reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms,32_1s,Noise,BF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms,8_0o5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-03-04_MLA_Offset_Int_4_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ms-Raw,4ms-2-6-last2,4ms-6-2-last2,16ms-Raw,16ms-8-24-last2,16ms-24-8-last2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001.9,2001.9,2001.9,2000.6,2000.6,2000.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,16,16,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #0000FF, #000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3;4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset-Int-4ms,Offset-Int-16ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-600,600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100,1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_last4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-03-30_MLA_Offset_Int_16_last4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16ms-Raw,16ms-8-24-last4,16ms-24-8-last4,16ms-Raw,16ms-8-24-last8,16ms-24-8-last8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,16,16,16,16,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000.6,2000.6,2000.6,2000.6,2000.6,2000.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset-Int-16ms_last4,Offset-Int-16ms_last8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-03-31_MLA_Offset_Int_16_last8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-200,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16ms-Raw,16ms-14.6-N8,16ms-17.6-N8,16ms-13.3-N8,16ms-19.2-N8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000.6,1999.2,2002.2,1997.9,2003.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,16,16,16,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4;1,3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset-Int-16ms_last8_Low,Offset-Int-16ms_last8_High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\MonkeyLinearArray\2023-03-31_MLA_Offset_Int_16_last12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16ms-Raw,16ms-14.6-N12,16ms-17.6-N12,16ms-13.3-N12,16ms-19.2-N12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset-Int-16ms_last12_Low,Offset-Int-16ms_last12_High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_Var_4ms_Last4_8_16</t>
+  </si>
+  <si>
+    <t>4ms-Reg,4ms-Var50-Last4,4ms-Var2-Last4,4ms-Var50-Last8,4ms-Var2-Last8,4ms-Var50-Last16,4ms-Var2-Last16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512.5,507.8,505.4,508,506.4,507.8,508.5</t>
+  </si>
+  <si>
+    <t>512.5,507.8,505.4,508,506.4,507.8,508.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3;1,4,5;1,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset-Var-4ms-last4, Offset-Var-4ms-last8,Offset-Var-4ms-last16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Awake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_20</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_40</t>
+  </si>
+  <si>
+    <t>16,32,64,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #0000FF, #000000, #AAAAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16ms,32ms,64ms,noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000.6,2016,1984,2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset-16ms-Awake, Offset-32ms-Awake, Offset-64-Awake, Offset-Noise-Awake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset-16ms-Rate-20, Offset-32ms-Rate-20, Offset-64-Rate-20, Offset-Noise-Rate-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset-16ms-Rate-40, Offset-32ms-Rate-40, Offset-64-Rate-40, Offset-Noise-Rate-40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,40 +1026,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="5" customWidth="1"/>
-    <col min="3" max="3" width="53.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="10.77734375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="21.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="47.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="53.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="5" style="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="1"/>
-    <col min="20" max="20" width="16.21875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="1"/>
-    <col min="22" max="22" width="45.33203125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="30.33203125" style="5" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="8.875" style="1"/>
+    <col min="20" max="20" width="16.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.875" style="1"/>
+    <col min="22" max="22" width="45.375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="21.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="37.625" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -948,7 +1135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
@@ -956,7 +1143,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
@@ -1010,7 +1197,7 @@
         <v>25</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="V2" t="s">
         <v>54</v>
@@ -1022,7 +1209,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -1096,7 +1283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -1170,7 +1357,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
@@ -1178,7 +1365,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>41</v>
@@ -1244,7 +1431,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>71</v>
       </c>
@@ -1252,7 +1439,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>75</v>
@@ -1306,7 +1493,7 @@
         <v>25</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="V6" t="s">
         <v>54</v>
@@ -1318,7 +1505,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>72</v>
       </c>
@@ -1326,7 +1513,7 @@
         <v>80</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>85</v>
@@ -1335,10 +1522,10 @@
         <v>85</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>81</v>
@@ -1392,7 +1579,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>73</v>
       </c>
@@ -1403,16 +1590,16 @@
         <v>90</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>81</v>
@@ -1460,33 +1647,33 @@
         <v>56</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>81</v>
@@ -1498,10 +1685,10 @@
         <v>83</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>12</v>
@@ -1528,7 +1715,7 @@
         <v>25</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="V9" t="s">
         <v>54</v>
@@ -1537,7 +1724,664 @@
         <v>60</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>10</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" t="s">
+        <v>109</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>10</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" t="s">
+        <v>109</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>10</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" t="s">
+        <v>109</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>10</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>10</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V14" t="s">
+        <v>109</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>10</v>
+      </c>
+      <c r="R15" s="1">
+        <v>2</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V15" t="s">
+        <v>109</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>10</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V16" t="s">
+        <v>146</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>10</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V17" t="s">
+        <v>146</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>10</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V18" t="s">
+        <v>146</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
